--- a/data/trans_orig/PER_CALI_VERDE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_CALI_VERDE-Clase-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de la calidad de zonas verdes en Barcelona</t>
+          <t>Percepción de la calidad de zonas verdes en Barcelona (tasa de respuesta: 98,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_CALI_VERDE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_CALI_VERDE-Clase-trans_orig.xlsx
@@ -738,12 +738,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7925</t>
+          <t>8257</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17400</t>
+          <t>17814</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9529</t>
+          <t>9213</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>18931</t>
+          <t>18494</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>19306</t>
+          <t>19198</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>32992</t>
+          <t>33437</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>8,11%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15512</t>
+          <t>15460</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27642</t>
+          <t>27634</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19567</t>
+          <t>19307</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>31920</t>
+          <t>31862</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>15,28%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>38092</t>
+          <t>38079</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>55308</t>
+          <t>54832</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>13,3%</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>53412</t>
+          <t>53490</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>71129</t>
+          <t>70500</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>26,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>34,9%</t>
+          <t>34,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>52957</t>
+          <t>52874</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>70481</t>
+          <t>70447</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>112370</t>
+          <t>111361</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>136737</t>
+          <t>135232</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>27,26%</t>
+          <t>27,01%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>32,8%</t>
         </is>
       </c>
     </row>
@@ -1077,12 +1077,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>66900</t>
+          <t>66795</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>84093</t>
+          <t>84538</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>41,26%</t>
+          <t>41,48%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1112,12 +1112,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>62978</t>
+          <t>64103</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>81123</t>
+          <t>82599</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>30,21%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>38,92%</t>
+          <t>39,62%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1147,12 +1147,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>136591</t>
+          <t>134873</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>162346</t>
+          <t>161497</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1162,12 +1162,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>33,13%</t>
+          <t>32,72%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>39,17%</t>
         </is>
       </c>
     </row>
@@ -1190,12 +1190,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25808</t>
+          <t>26228</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40777</t>
+          <t>40188</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,66%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,01%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1225,12 +1225,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>28664</t>
+          <t>28429</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>44828</t>
+          <t>44525</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,12 +1260,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>58597</t>
+          <t>58696</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>80633</t>
+          <t>80409</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1275,12 +1275,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>19,51%</t>
         </is>
       </c>
     </row>
@@ -1420,12 +1420,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2205</t>
+          <t>2260</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7468</t>
+          <t>7545</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5169</t>
+          <t>5290</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12755</t>
+          <t>12929</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1490,12 +1490,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8517</t>
+          <t>8428</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>17490</t>
+          <t>17114</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1505,12 +1505,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>5,92%</t>
         </is>
       </c>
     </row>
@@ -1533,12 +1533,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6827</t>
+          <t>6295</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15943</t>
+          <t>15216</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1548,12 +1548,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1568,12 +1568,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12747</t>
+          <t>12094</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23094</t>
+          <t>22899</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1583,12 +1583,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>14,03%</t>
+          <t>13,91%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1603,12 +1603,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>21189</t>
+          <t>21172</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>34683</t>
+          <t>35418</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1618,12 +1618,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>12,25%</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>31823</t>
+          <t>31890</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>46195</t>
+          <t>46583</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,56%</t>
+          <t>25,61%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>37,1%</t>
+          <t>37,41%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>45096</t>
+          <t>44840</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>60775</t>
+          <t>61380</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1696,12 +1696,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>27,4%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>36,93%</t>
+          <t>37,3%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>81184</t>
+          <t>80376</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>102993</t>
+          <t>102746</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1731,12 +1731,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>27,8%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>35,63%</t>
+          <t>35,54%</t>
         </is>
       </c>
     </row>
@@ -1759,12 +1759,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45167</t>
+          <t>45119</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>60513</t>
+          <t>60430</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1774,12 +1774,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,27%</t>
+          <t>36,23%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>48,59%</t>
+          <t>48,53%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1794,12 +1794,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>56877</t>
+          <t>57708</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>74683</t>
+          <t>73767</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>35,07%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>45,38%</t>
+          <t>44,83%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1829,12 +1829,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>106732</t>
+          <t>107828</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>128830</t>
+          <t>131117</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1844,12 +1844,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>36,92%</t>
+          <t>37,3%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>44,56%</t>
+          <t>45,36%</t>
         </is>
       </c>
     </row>
@@ -1872,12 +1872,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>13291</t>
+          <t>13309</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25521</t>
+          <t>25480</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1887,12 +1887,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>20,46%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,12 +1907,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>15569</t>
+          <t>15726</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>27592</t>
+          <t>27103</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1922,12 +1922,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,12 +1942,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>31852</t>
+          <t>31420</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>48478</t>
+          <t>48982</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1957,12 +1957,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>10,87%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>16,94%</t>
         </is>
       </c>
     </row>
@@ -2102,12 +2102,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1028</t>
+          <t>1029</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7248</t>
+          <t>7226</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2137,12 +2137,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1524</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>6293</t>
+          <t>7219</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2152,12 +2152,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>12,99%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2172,12 +2172,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>3456</t>
+          <t>3555</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>11052</t>
+          <t>11068</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2187,12 +2187,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>7,32%</t>
         </is>
       </c>
     </row>
@@ -2215,12 +2215,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5726</t>
+          <t>5458</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>15809</t>
+          <t>16201</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2230,12 +2230,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2250,12 +2250,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3235</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10703</t>
+          <t>10976</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>19,76%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>11027</t>
+          <t>10888</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>24017</t>
+          <t>24265</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2300,12 +2300,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>16,05%</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>23566</t>
+          <t>22852</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>37798</t>
+          <t>36295</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2343,12 +2343,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>23,9%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>39,53%</t>
+          <t>37,96%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2363,12 +2363,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>12468</t>
+          <t>12733</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>24350</t>
+          <t>24664</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2378,12 +2378,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>22,92%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>43,83%</t>
+          <t>44,39%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>39858</t>
+          <t>38738</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>57147</t>
+          <t>58077</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2413,12 +2413,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>37,8%</t>
+          <t>38,42%</t>
         </is>
       </c>
     </row>
@@ -2441,12 +2441,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>28214</t>
+          <t>28172</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>41689</t>
+          <t>41680</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2456,12 +2456,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>29,51%</t>
+          <t>29,46%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>43,6%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2476,12 +2476,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13432</t>
+          <t>13844</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>25211</t>
+          <t>25271</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>24,92%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>45,38%</t>
+          <t>45,49%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2511,12 +2511,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>45156</t>
+          <t>45394</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>63767</t>
+          <t>64790</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2526,12 +2526,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>29,87%</t>
+          <t>30,03%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>42,18%</t>
+          <t>42,86%</t>
         </is>
       </c>
     </row>
@@ -2554,12 +2554,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>12374</t>
+          <t>12451</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>25142</t>
+          <t>25915</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2569,12 +2569,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>13,02%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>26,3%</t>
+          <t>27,1%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2589,12 +2589,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>5277</t>
+          <t>5035</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>15425</t>
+          <t>14204</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2604,12 +2604,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>27,76%</t>
+          <t>25,56%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>19523</t>
+          <t>19289</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>35984</t>
+          <t>35217</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2639,12 +2639,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>23,3%</t>
         </is>
       </c>
     </row>
@@ -2784,12 +2784,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2866</t>
+          <t>2699</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>8994</t>
+          <t>9663</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2799,12 +2799,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2819,12 +2819,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2639</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>11234</t>
+          <t>10736</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2834,12 +2834,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,59%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2854,12 +2854,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>6497</t>
+          <t>6205</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>17113</t>
+          <t>16131</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2869,12 +2869,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,05%</t>
         </is>
       </c>
     </row>
@@ -2897,12 +2897,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>7547</t>
+          <t>7372</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>19540</t>
+          <t>18936</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2912,12 +2912,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2932,12 +2932,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>9680</t>
+          <t>10275</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>23186</t>
+          <t>23489</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2947,12 +2947,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2967,12 +2967,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>19833</t>
+          <t>19329</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>38767</t>
+          <t>36520</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -2982,12 +2982,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>11,43%</t>
         </is>
       </c>
     </row>
@@ -3010,12 +3010,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>38725</t>
+          <t>39644</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>58798</t>
+          <t>59654</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>36,1%</t>
+          <t>36,62%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3045,12 +3045,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>40919</t>
+          <t>40112</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>59057</t>
+          <t>58083</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3060,12 +3060,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>25,6%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>37,06%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3080,12 +3080,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>83991</t>
+          <t>85492</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>111063</t>
+          <t>113144</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3095,12 +3095,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>34,75%</t>
+          <t>35,4%</t>
         </is>
       </c>
     </row>
@@ -3123,12 +3123,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>59016</t>
+          <t>58430</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>79183</t>
+          <t>78932</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>36,23%</t>
+          <t>35,87%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>48,61%</t>
+          <t>48,46%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3158,12 +3158,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>56006</t>
+          <t>55569</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>75166</t>
+          <t>74576</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>35,74%</t>
+          <t>35,46%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>47,96%</t>
+          <t>47,59%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>120449</t>
+          <t>119773</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>149386</t>
+          <t>149479</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>37,69%</t>
+          <t>37,48%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>46,74%</t>
+          <t>46,77%</t>
         </is>
       </c>
     </row>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>20265</t>
+          <t>21275</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>38689</t>
+          <t>39116</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3251,12 +3251,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3271,12 +3271,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>16099</t>
+          <t>16844</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>28404</t>
+          <t>30432</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3286,12 +3286,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3306,12 +3306,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>40637</t>
+          <t>40414</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>63277</t>
+          <t>62298</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3321,12 +3321,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>12,71%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>19,49%</t>
         </is>
       </c>
     </row>
@@ -3466,12 +3466,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>328</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4112</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3481,12 +3481,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3501,12 +3501,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>2827</t>
+          <t>2769</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>12098</t>
+          <t>10604</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3516,12 +3516,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>11,48%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3536,12 +3536,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>3735</t>
+          <t>3826</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>13114</t>
+          <t>13378</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3551,12 +3551,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>9,03%</t>
+          <t>9,21%</t>
         </is>
       </c>
     </row>
@@ -3579,12 +3579,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>436</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4402</t>
+          <t>4450</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3594,12 +3594,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3614,12 +3614,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>4532</t>
+          <t>4427</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>16124</t>
+          <t>15777</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -3629,12 +3629,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>17,09%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3649,12 +3649,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>6024</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>18468</t>
+          <t>19003</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -3664,12 +3664,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>13,08%</t>
         </is>
       </c>
     </row>
@@ -3692,12 +3692,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>7290</t>
+          <t>7348</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>16723</t>
+          <t>16557</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -3707,12 +3707,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>31,3%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3727,12 +3727,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>15004</t>
+          <t>15639</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>27715</t>
+          <t>28652</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>16,25%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>31,03%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>24889</t>
+          <t>25130</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>40505</t>
+          <t>40518</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>17,3%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>27,9%</t>
         </is>
       </c>
     </row>
@@ -3805,12 +3805,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>24549</t>
+          <t>24531</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>36432</t>
+          <t>35585</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>46,41%</t>
+          <t>46,37%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>68,87%</t>
+          <t>67,27%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3840,12 +3840,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>33373</t>
+          <t>32518</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>49762</t>
+          <t>48754</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>36,14%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>53,89%</t>
+          <t>52,8%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>60496</t>
+          <t>61398</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>81075</t>
+          <t>81452</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>41,65%</t>
+          <t>42,27%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>55,82%</t>
+          <t>56,08%</t>
         </is>
       </c>
     </row>
@@ -3918,12 +3918,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>4557</t>
+          <t>4708</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>12293</t>
+          <t>12413</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -3933,12 +3933,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>23,47%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>10905</t>
+          <t>10563</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>22783</t>
+          <t>22477</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -3968,12 +3968,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3988,12 +3988,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>17864</t>
+          <t>17578</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>31462</t>
+          <t>31266</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -4003,12 +4003,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>21,53%</t>
         </is>
       </c>
     </row>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>597</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>4594</t>
+          <t>4624</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -4163,12 +4163,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4183,12 +4183,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>1361</t>
+          <t>1399</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>8173</t>
+          <t>8739</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>13,97%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>3135</t>
+          <t>3024</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>11210</t>
+          <t>10557</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>10,69%</t>
         </is>
       </c>
     </row>
@@ -4261,12 +4261,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>646</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>5356</t>
+          <t>5296</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4276,12 +4276,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>14,62%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4296,12 +4296,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>2233</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>8732</t>
+          <t>8526</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4311,12 +4311,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4331,12 +4331,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>3597</t>
+          <t>3907</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>11577</t>
+          <t>11721</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4346,12 +4346,12 @@
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>11,72%</t>
+          <t>11,86%</t>
         </is>
       </c>
     </row>
@@ -4374,12 +4374,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>3547</t>
+          <t>3335</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>9883</t>
+          <t>9703</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -4389,12 +4389,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>27,27%</t>
+          <t>26,78%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4409,12 +4409,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>13611</t>
+          <t>13632</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>24167</t>
+          <t>24458</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -4424,12 +4424,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>21,76%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>38,63%</t>
+          <t>39,1%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4444,12 +4444,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>18598</t>
+          <t>18584</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>30991</t>
+          <t>31546</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -4459,12 +4459,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>31,93%</t>
         </is>
       </c>
     </row>
@@ -4487,12 +4487,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>15843</t>
+          <t>15412</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>25129</t>
+          <t>25429</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -4502,12 +4502,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>43,72%</t>
+          <t>42,53%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>69,35%</t>
+          <t>70,18%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4522,12 +4522,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>22082</t>
+          <t>21980</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>33413</t>
+          <t>33353</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -4537,12 +4537,12 @@
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>35,3%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>53,41%</t>
+          <t>53,31%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4557,12 +4557,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>40653</t>
+          <t>39616</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>55197</t>
+          <t>55155</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -4572,12 +4572,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>40,1%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>55,87%</t>
+          <t>55,83%</t>
         </is>
       </c>
     </row>
@@ -4600,12 +4600,12 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>2938</t>
+          <t>2823</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>9139</t>
+          <t>9087</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4615,12 +4615,12 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>7,79%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
@@ -4635,12 +4635,12 @@
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>4829</t>
+          <t>4834</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>12655</t>
+          <t>13348</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4650,12 +4650,12 @@
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>20,23%</t>
+          <t>21,34%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -4670,12 +4670,12 @@
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>9106</t>
+          <t>9441</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>19023</t>
+          <t>19635</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4685,12 +4685,12 @@
       </c>
       <c r="V38" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>9,56%</t>
         </is>
       </c>
       <c r="W38" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>19,87%</t>
         </is>
       </c>
     </row>
@@ -4830,12 +4830,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>21877</t>
+          <t>21666</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>36318</t>
+          <t>36266</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,21%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
@@ -4865,12 +4865,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>31895</t>
+          <t>31316</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>49909</t>
+          <t>50323</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -4880,12 +4880,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4900,12 +4900,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>56030</t>
+          <t>54967</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>80745</t>
+          <t>79200</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -4915,12 +4915,12 @@
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,59%</t>
         </is>
       </c>
     </row>
@@ -4943,12 +4943,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>47176</t>
+          <t>47335</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>68230</t>
+          <t>70045</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -4958,12 +4958,12 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>10,36%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4978,12 +4978,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>65741</t>
+          <t>64887</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>88914</t>
+          <t>89594</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -4993,12 +4993,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5013,12 +5013,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>116915</t>
+          <t>117998</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>150621</t>
+          <t>150894</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -5028,12 +5028,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>10,66%</t>
         </is>
       </c>
     </row>
@@ -5056,12 +5056,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>179426</t>
+          <t>177107</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>216929</t>
+          <t>213629</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -5071,12 +5071,12 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>26,54%</t>
+          <t>26,2%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>31,6%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5091,12 +5091,12 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>203242</t>
+          <t>203500</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>239205</t>
+          <t>237616</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
@@ -5106,12 +5106,12 @@
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>27,46%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>32,32%</t>
+          <t>32,1%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5126,12 +5126,12 @@
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>393943</t>
+          <t>392995</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>443090</t>
+          <t>445567</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
@@ -5141,12 +5141,12 @@
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>27,75%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>31,29%</t>
+          <t>31,46%</t>
         </is>
       </c>
     </row>
@@ -5169,12 +5169,12 @@
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>264913</t>
+          <t>264804</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>304878</t>
+          <t>306459</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>39,17%</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>45,1%</t>
+          <t>45,34%</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
@@ -5204,12 +5204,12 @@
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>271412</t>
+          <t>270724</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>309422</t>
+          <t>311176</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5219,12 +5219,12 @@
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>36,67%</t>
+          <t>36,57%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>41,8%</t>
+          <t>42,04%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -5239,12 +5239,12 @@
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>547146</t>
+          <t>548848</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>602598</t>
+          <t>601860</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -5254,12 +5254,12 @@
       </c>
       <c r="V43" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>38,76%</t>
         </is>
       </c>
       <c r="W43" s="2" t="inlineStr">
         <is>
-          <t>42,55%</t>
+          <t>42,5%</t>
         </is>
       </c>
     </row>
@@ -5282,12 +5282,12 @@
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>96450</t>
+          <t>96715</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>126450</t>
+          <t>126880</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
@@ -5317,12 +5317,12 @@
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>99292</t>
+          <t>97750</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
         <is>
-          <t>127538</t>
+          <t>127135</t>
         </is>
       </c>
       <c r="N44" s="2" t="inlineStr">
@@ -5332,12 +5332,12 @@
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -5352,12 +5352,12 @@
       </c>
       <c r="S44" s="2" t="inlineStr">
         <is>
-          <t>202849</t>
+          <t>202682</t>
         </is>
       </c>
       <c r="T44" s="2" t="inlineStr">
         <is>
-          <t>245022</t>
+          <t>243135</t>
         </is>
       </c>
       <c r="U44" s="2" t="inlineStr">
@@ -5367,12 +5367,12 @@
       </c>
       <c r="V44" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="W44" s="2" t="inlineStr">
         <is>
-          <t>17,3%</t>
+          <t>17,17%</t>
         </is>
       </c>
     </row>
